--- a/Timesheet(窦鑫宇).xlsx
+++ b/Timesheet(窦鑫宇).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\常用文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\常用文件\TimeSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -261,7 +261,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="693">
   <si>
     <t>Name</t>
   </si>
@@ -3734,6 +3734,34 @@
   </si>
   <si>
     <t>APP 后台接口编码</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>清明节放假</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>清明节放假</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目例会</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>与用户讨论查询优化方案</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>找库存纱模块编码</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>复板第一方模块编码</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>.net core 学习</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -5133,10 +5161,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I448"/>
+  <dimension ref="A1:I457"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D407" sqref="D407"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A442" workbookViewId="0">
+      <selection activeCell="D458" sqref="D458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16218,7 +16246,7 @@
         <v>685</v>
       </c>
       <c r="E447" s="50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F447" s="50">
         <v>100</v>
@@ -16243,7 +16271,7 @@
         <v>678</v>
       </c>
       <c r="E448" s="50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F448" s="50">
         <v>100</v>
@@ -16253,6 +16281,207 @@
         <v>12</v>
       </c>
       <c r="I448" s="50"/>
+    </row>
+    <row r="449" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="450" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A450" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="B450" s="49">
+        <v>42828</v>
+      </c>
+      <c r="C450" s="50" t="s">
+        <v>582</v>
+      </c>
+      <c r="D450" s="50" t="s">
+        <v>686</v>
+      </c>
+      <c r="E450" s="50">
+        <v>8</v>
+      </c>
+      <c r="F450" s="50">
+        <v>100</v>
+      </c>
+      <c r="G450" s="50"/>
+      <c r="H450" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="I450" s="50"/>
+    </row>
+    <row r="451" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A451" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="B451" s="49">
+        <v>42829</v>
+      </c>
+      <c r="C451" s="50" t="s">
+        <v>582</v>
+      </c>
+      <c r="D451" s="50" t="s">
+        <v>687</v>
+      </c>
+      <c r="E451" s="50">
+        <v>8</v>
+      </c>
+      <c r="F451" s="50">
+        <v>100</v>
+      </c>
+      <c r="G451" s="50"/>
+      <c r="H451" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="I451" s="50"/>
+    </row>
+    <row r="452" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A452" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="B452" s="49">
+        <v>42830</v>
+      </c>
+      <c r="C452" s="50" t="s">
+        <v>582</v>
+      </c>
+      <c r="D452" s="50" t="s">
+        <v>688</v>
+      </c>
+      <c r="E452" s="50">
+        <v>1</v>
+      </c>
+      <c r="F452" s="50">
+        <v>100</v>
+      </c>
+      <c r="G452" s="50"/>
+      <c r="H452" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="I452" s="50"/>
+    </row>
+    <row r="453" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A453" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="B453" s="49">
+        <v>42830</v>
+      </c>
+      <c r="C453" s="50" t="s">
+        <v>624</v>
+      </c>
+      <c r="D453" s="50" t="s">
+        <v>678</v>
+      </c>
+      <c r="E453" s="50">
+        <v>7</v>
+      </c>
+      <c r="F453" s="50">
+        <v>100</v>
+      </c>
+      <c r="G453" s="50"/>
+      <c r="H453" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="I453" s="50"/>
+    </row>
+    <row r="454" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A454" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="B454" s="49">
+        <v>42831</v>
+      </c>
+      <c r="C454" s="50" t="s">
+        <v>582</v>
+      </c>
+      <c r="D454" s="50" t="s">
+        <v>689</v>
+      </c>
+      <c r="E454" s="50">
+        <v>2</v>
+      </c>
+      <c r="F454" s="50">
+        <v>100</v>
+      </c>
+      <c r="G454" s="50"/>
+      <c r="H454" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="I454" s="50"/>
+    </row>
+    <row r="455" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A455" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="B455" s="49">
+        <v>42831</v>
+      </c>
+      <c r="C455" s="50" t="s">
+        <v>582</v>
+      </c>
+      <c r="D455" s="50" t="s">
+        <v>690</v>
+      </c>
+      <c r="E455" s="50">
+        <v>6</v>
+      </c>
+      <c r="F455" s="50">
+        <v>100</v>
+      </c>
+      <c r="G455" s="50"/>
+      <c r="H455" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="I455" s="50"/>
+    </row>
+    <row r="456" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A456" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="B456" s="49">
+        <v>42832</v>
+      </c>
+      <c r="C456" s="50" t="s">
+        <v>582</v>
+      </c>
+      <c r="D456" s="50" t="s">
+        <v>691</v>
+      </c>
+      <c r="E456" s="50">
+        <v>6</v>
+      </c>
+      <c r="F456" s="50">
+        <v>100</v>
+      </c>
+      <c r="G456" s="50"/>
+      <c r="H456" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="I456" s="50"/>
+    </row>
+    <row r="457" spans="1:9" s="25" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+      <c r="A457" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="B457" s="49">
+        <v>42832</v>
+      </c>
+      <c r="C457" s="50" t="s">
+        <v>582</v>
+      </c>
+      <c r="D457" s="50" t="s">
+        <v>692</v>
+      </c>
+      <c r="E457" s="50">
+        <v>2</v>
+      </c>
+      <c r="F457" s="50">
+        <v>100</v>
+      </c>
+      <c r="G457" s="50"/>
+      <c r="H457" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="I457" s="50"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I259">
@@ -16264,10 +16493,10 @@
   </autoFilter>
   <phoneticPr fontId="20" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C252 C400 C417 C449:C1048576 C434">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C252 C400 C417 C434 C458:C1048576 C449">
       <formula1>"特殊纱自动订纱,APS项目,溢达GEW标准色,GET OAS,XJ OAS,OAS Upgrade,EColor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C253:C399 C401:C416 C418:C433 C435:C448">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C253:C399 C401:C416 C418:C433 C435:C448 C450:C457">
       <formula1>"特殊纱自动订纱,APS项目,溢达GEW标准色,GET OAS,XJ OAS,OAS Upgrade,Ecolor,颜色数字化"</formula1>
     </dataValidation>
   </dataValidations>
